--- a/5-12/5-12.xlsx
+++ b/5-12/5-12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="11424" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,13 +111,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -125,57 +125,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,14 +144,58 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -217,11 +210,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,17 +242,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,7 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,187 +281,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,25 +500,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,16 +541,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,17 +560,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,6 +578,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -595,10 +595,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,133 +607,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -741,10 +741,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -756,13 +756,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1085,8 +1085,8 @@
   <sheetPr/>
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1188,7 +1188,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" ht="15.9" spans="1:25">
+    <row r="3" spans="1:25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -1270,7 +1270,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="4" ht="15.9" spans="1:25">
+    <row r="4" spans="1:25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="M4" s="2">
         <f t="shared" ref="M4:M11" si="3">($L$12-L4)/$E$13*8*1000/3</f>
-        <v>30.3454715219422</v>
+        <v>30.3454715219411</v>
       </c>
       <c r="N4" s="5">
         <v>0.054</v>
@@ -1354,7 +1354,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" ht="15.9" spans="1:25">
+    <row r="5" spans="1:25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="M5" s="2">
         <f t="shared" si="3"/>
-        <v>14.0056022408962</v>
+        <v>14.0056022408963</v>
       </c>
       <c r="N5" s="5">
         <v>0.053</v>
@@ -1438,7 +1438,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="6" ht="15.9" spans="1:25">
+    <row r="6" spans="1:25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>8.40336134453776</v>
+        <v>8.40336134453782</v>
       </c>
       <c r="N6" s="5">
         <v>0.046</v>
@@ -1522,7 +1522,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="7" ht="15.9" spans="1:25">
+    <row r="7" spans="1:25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>18.6741363211951</v>
+        <v>18.6741363211933</v>
       </c>
       <c r="N7" s="5">
         <v>0.061</v>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>18.6741363211951</v>
+        <v>18.6741363211933</v>
       </c>
       <c r="N8" s="5">
         <v>0.044</v>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>7.936507936508</v>
+        <v>7.936507936507</v>
       </c>
       <c r="N9" s="5">
         <v>0.053</v>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>84.9673202614379</v>
+        <v>84.967320261437</v>
       </c>
       <c r="N11" s="5">
         <v>0.268</v>
